--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s0_P5_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>874.6241735936028</v>
+        <v>830.361569243868</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.26417359359787</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.342239053760168</v>
+        <v>8.161660554742911</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.342239053760168</v>
+        <v>7.752483473055587</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>376.040000000005</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>455.3199999999999</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,12 +617,23 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -711,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -780,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -824,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -846,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -896,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.361415491259855</v>
+        <v>14.35124120223184</v>
       </c>
     </row>
     <row r="4">
@@ -904,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.09486359553444</v>
+        <v>18.23758910225314</v>
       </c>
     </row>
     <row r="5">
@@ -912,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.22178944309945</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -920,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.57220118279981</v>
+        <v>24.57220118279982</v>
       </c>
     </row>
     <row r="7">
@@ -928,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>21.42208278257345</v>
       </c>
     </row>
     <row r="8">
@@ -944,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,7 +1007,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1010,7 +1021,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1024,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1038,9 +1049,93 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1143,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.86000000000065</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -1154,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.83000000000065</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -1165,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>46.6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -1176,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>51.34000000000066</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1187,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>49.96000000000065</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1198,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>199.2900000000001</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
@@ -1209,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>197.6400000000002</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -1220,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>204.8950000000002</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
@@ -1231,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>197.9550000000002</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
@@ -1242,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>208.6900000000001</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -1253,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>93.02999999999935</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1264,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>87.77499999999934</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1275,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>97.16999999999938</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1286,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>85.99499999999935</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1297,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>97.73999999999934</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1308,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>231.6050000000004</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
@@ -1319,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>225.9800000000005</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
@@ -1330,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>239.5200000000004</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
@@ -1341,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>242.4900000000004</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26">
@@ -1352,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>234.8400000000004</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
@@ -1363,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>123.0900000000004</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
@@ -1374,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>129.0600000000005</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
@@ -1385,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>132.8750000000004</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
@@ -1396,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>138.7450000000004</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
@@ -1407,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>134.35</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32">
@@ -1418,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>231.6050000000004</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33">
@@ -1429,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>225.9800000000005</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34">
@@ -1440,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>239.5200000000004</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
@@ -1451,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>242.4900000000004</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36">
@@ -1462,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>234.8400000000004</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37">
@@ -1473,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>199.2900000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1484,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>197.6400000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1495,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>204.8950000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1506,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>197.9550000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1517,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>208.6900000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>31.60500000000044</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -1575,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>25.98000000000047</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -1586,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>39.52000000000044</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1597,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>42.49000000000044</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -1608,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>34.84000000000043</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -1641,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>4.89500000000017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1663,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>8.690000000000129</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1710,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.315</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1721,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1732,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1743,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25.57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1754,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1765,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1776,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1787,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1798,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1809,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1820,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.515</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1831,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1842,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1853,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1864,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.04</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1930,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1941,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1952,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1963,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1974,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2015,10 +2110,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2026,10 +2121,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2040,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2051,7 +2146,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2062,7 +2157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2070,10 +2165,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2081,12 +2176,45 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
